--- a/ProductBacklog-Nhom4.xlsx
+++ b/ProductBacklog-Nhom4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FDB3AD-4D53-4A55-8130-E2DEC70CF6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F928C-F576-40B1-8A52-0F0F1FA3CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -134,9 +134,6 @@
     <t>baobi</t>
   </si>
   <si>
-    <t>Team Lead</t>
-  </si>
-  <si>
     <t>Dev</t>
   </si>
   <si>
@@ -264,6 +261,109 @@
   </si>
   <si>
     <t>Dashboard Home (Admin Home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Giới thiệu
+FlowerKingdom là hệ thống quản lý bán hoa trực tuyến, cho phép:
+- Khách hàng: duyệt sản phẩm, đặt hoa online, thanh toán, theo dõi đơn hàng.  
+- Nhân viên: quản lý sản phẩm, đơn hàng, hỗ trợ khách hàng.  
+- Admin: quản lý hệ thống, giám sát bán hàng, thống kê báo cáo.                                                                                                 2.Yêu cầu chức năng (Functional Requirements)
+- Xác thực người dùng: Đăng nhập, Đăng xuất, Quên mật khẩu.  
+Khách hàng:
+- Xem danh mục sản phẩm, tìm kiếm hoa.  
+- Đặt hoa, thanh toán online hoặc COD.  
+- Theo dõi trạng thái đơn hàng.  
+- Xem lịch sử mua hàng.  
+Nhân viên:
+- Quản lý sản phẩm (thêm, sửa, xóa, tồn kho).  
+- Quản lý đơn hàng (xác nhận, xử lý giao hàng, hủy đơn).  
+- Quản lý khách hàng cơ bản.  
+- Xem thống kê đơn hàng.  
+Admin:
+- Quản lý tài khoản khách hàng/nhân viên.  
+- Quản lý danh mục sản phẩm, loại hoa, khuyến mãi.  
+- Phân công nhân viên xử lý đơn hàng.  
+- Giám sát tình hình kinh doanh.  
+- Thống kê doanh thu, xuất báo cáo.                                                                                                                                      3. Yêu cầu phi chức năng (Non-functional Requirements)
+- Hiệu năng: Hỗ trợ tối thiểu 200 người dùng đồng thời.  
+- Bảo mật:  
+  - Tài khoản duy nhất cho mỗi người dùng.  
+  - Mật khẩu mã hóa an toàn.  
+  - Phân quyền rõ ràng (Khách hàng, Nhân viên, Admin).  
+- Khả dụng: Uptime ≥ 99%, hỗ trợ đa nền tảng (web, mobile).  
+- Khả năng mở rộng: Có thể thêm dịch vụ tặng quà kèm, gợi ý hoa AI trong tương lai.  
+- Thân thiện Giao diện trực quan, dễ sử dụng                                                                                                                                          4. Ràng buộc nghiệp vụ (Business Rules)
+1. Mỗi khách hàng có 1 tài khoản duy nhất.  
+2. Khách hàng chỉ được đặt sản phẩm khi còn hàng.  
+3. Đơn hàng chỉ có thể hủy trước khi nhân viên xác nhận giao.  
+4. Hệ thống tự động hủy đơn nếu quá hạn thanh toán online.  
+5. Nhân viên không được chỉnh sửa đơn hàng sau khi đã xác nhận.  
+6. Admin phải đảm bảo không trùng phân công cho cùng một đơn hàng.  
+7. Khi xóa khách hàng, dữ liệu lịch sử đơn hàng vẫn được giữ cho thống kê.  
+8. Admin không được phép xóa dữ liệu gốc (loại hoa, danh mục sản phẩm).. </t>
+  </si>
+  <si>
+    <t>Xem trang chủ</t>
+  </si>
+  <si>
+    <t>Xem danh sách sản phẩm hoa</t>
+  </si>
+  <si>
+    <t>Xem chi tiết sản phẩm hoa</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Quản lý giỏ hàng</t>
+  </si>
+  <si>
+    <t>Chat với nhân viên tư vấn</t>
+  </si>
+  <si>
+    <t>Đặt hoa</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng (xem, yêu cầu hủy)</t>
+  </si>
+  <si>
+    <t>Thanh toán trực tuyến</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng (duyệt, phân công)</t>
+  </si>
+  <si>
+    <t>Quản lý giao hàng</t>
+  </si>
+  <si>
+    <t>Xác nhận thanh toán COD</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm hoa</t>
+  </si>
+  <si>
+    <t>Quản lý kho hàng</t>
+  </si>
+  <si>
+    <t>Quản lý khuyến mãi, mã giảm giá</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>Thống kê và báo cáo doanh thu</t>
   </si>
 </sst>
 </file>
@@ -308,7 +408,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,10 +477,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,35 +488,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,6 +510,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -863,243 +963,245 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+    <row r="3" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1115,7 +1217,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1128,14 +1230,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1164,11 +1266,11 @@
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
@@ -1180,11 +1282,11 @@
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4"/>
@@ -1196,7 +1298,7 @@
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1212,11 +1314,11 @@
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
@@ -1228,11 +1330,11 @@
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
@@ -1285,9 +1387,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="19"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1306,18 +1408,18 @@
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="20"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1328,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1340,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1351,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -1362,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -1373,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -1384,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1396,18 +1498,18 @@
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="20"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -1418,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1429,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1440,9 +1542,9 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="21">
+        <v>46</v>
+      </c>
+      <c r="C18" s="15">
         <v>3</v>
       </c>
     </row>
@@ -1451,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
@@ -1461,8 +1563,8 @@
       <c r="A20" s="4">
         <v>13</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>49</v>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
@@ -1472,8 +1574,8 @@
       <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>50</v>
+      <c r="B21" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -1481,22 +1583,22 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="22"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="20"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>52</v>
+      <c r="B24" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="4">
         <v>3</v>
@@ -1506,8 +1608,8 @@
       <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>53</v>
+      <c r="B25" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
@@ -1517,8 +1619,8 @@
       <c r="A26" s="4">
         <v>17</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>54</v>
+      <c r="B26" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
@@ -1528,8 +1630,8 @@
       <c r="A27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>55</v>
+      <c r="B27" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
@@ -1539,8 +1641,8 @@
       <c r="A28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>56</v>
+      <c r="B28" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
@@ -1550,8 +1652,8 @@
       <c r="A29" s="4">
         <v>20</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>57</v>
+      <c r="B29" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1559,22 +1661,22 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="22"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="20"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>21</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>59</v>
+      <c r="B32" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
@@ -1584,8 +1686,8 @@
       <c r="A33" s="4">
         <v>22</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>60</v>
+      <c r="B33" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -1595,8 +1697,8 @@
       <c r="A34" s="4">
         <v>23</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>61</v>
+      <c r="B34" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
@@ -1606,8 +1708,8 @@
       <c r="A35" s="4">
         <v>24</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>62</v>
+      <c r="B35" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
@@ -1617,8 +1719,8 @@
       <c r="A36" s="4">
         <v>25</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>63</v>
+      <c r="B36" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -1628,8 +1730,8 @@
       <c r="A37" s="4">
         <v>26</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>64</v>
+      <c r="B37" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
@@ -1639,8 +1741,8 @@
       <c r="A38" s="4">
         <v>27</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>65</v>
+      <c r="B38" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
@@ -1650,8 +1752,8 @@
       <c r="A39" s="4">
         <v>28</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>66</v>
+      <c r="B39" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
@@ -1661,8 +1763,8 @@
       <c r="A40" s="4">
         <v>29</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>67</v>
+      <c r="B40" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
@@ -1672,8 +1774,8 @@
       <c r="A41" s="4">
         <v>30</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>68</v>
+      <c r="B41" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="4">
         <v>3</v>
@@ -1683,8 +1785,8 @@
       <c r="A42" s="4">
         <v>31</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>69</v>
+      <c r="B42" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C42" s="4">
         <v>4</v>
@@ -1692,55 +1794,55 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="24"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="A46" s="15">
         <v>33</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>34</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="C46" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <v>34</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>73</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="15">
         <v>35</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>74</v>
+      <c r="B48" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
@@ -1756,19 +1858,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
@@ -1778,18 +1880,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1803,10 +1905,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1845,7 +1947,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <f>SUM(C7:C11)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1856,24 +1958,32 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1882,10 +1992,18 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1894,10 +2012,18 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1906,10 +2032,18 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1918,10 +2052,18 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1930,10 +2072,18 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="4">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1946,30 +2096,300 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="26">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="26">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="26">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="26">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="26">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>19</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>23</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>24</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
